--- a/input/DANE/1958.xlsx
+++ b/input/DANE/1958.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josetavera/Documents/HEC_Datos/input/DANE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19742BBD-3044-7147-AC9B-C6FE762C225F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7EC3E80-2616-0149-8A9D-46D90ECDEAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13780" xr2:uid="{0F3B64C7-89E9-2B41-9B6D-E2DC2E8CF175}"/>
   </bookViews>
@@ -918,9 +918,6 @@
     <t>1,441,438</t>
   </si>
   <si>
-    <t>El Tambo.</t>
-  </si>
-  <si>
     <t>Páez</t>
   </si>
   <si>
@@ -1551,9 +1548,6 @@
     <t>Cáchira</t>
   </si>
   <si>
-    <t>Convención</t>
-  </si>
-  <si>
     <t>Chinácota</t>
   </si>
   <si>
@@ -1650,9 +1644,6 @@
     <t>Barrancabermeja.</t>
   </si>
   <si>
-    <t>Cimitarra..</t>
-  </si>
-  <si>
     <t>212. 532</t>
   </si>
   <si>
@@ -2326,6 +2317,15 @@
   </si>
   <si>
     <t>Buga</t>
+  </si>
+  <si>
+    <t>El Tambo</t>
+  </si>
+  <si>
+    <t>Cimitarra</t>
+  </si>
+  <si>
+    <t>Concepción</t>
   </si>
 </sst>
 </file>
@@ -2697,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077AA058-A211-9F4D-ABFD-ABEBC4F935C2}">
   <dimension ref="A1:J293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R265" sqref="R265"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="A284" sqref="A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>144</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>144</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>222</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>294</v>
+        <v>761</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>288</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>288</v>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>288</v>
@@ -6178,7 +6178,7 @@
         <v>621741</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F109" s="3">
         <v>320659</v>
@@ -6198,7 +6198,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>288</v>
@@ -6213,7 +6213,7 @@
         <v>106</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G110" s="2">
         <v>84</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>288</v>
@@ -6239,13 +6239,13 @@
         <v>668</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E111" s="2">
         <v>146</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G111" s="2">
         <v>150</v>
@@ -6257,12 +6257,12 @@
         <v>964</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>288</v>
@@ -6289,27 +6289,27 @@
         <v>1.123</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="C113" s="2">
         <v>491</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E113" s="2">
         <v>378</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G113" s="2">
         <v>25</v>
@@ -6326,10 +6326,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C114" s="2">
         <v>105</v>
@@ -6358,42 +6358,42 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C115" s="2">
         <v>665</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E115" s="2">
         <v>507</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G115" s="2">
         <v>7</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I115" s="3">
         <v>1179</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C116" s="2">
         <v>269</v>
@@ -6405,7 +6405,7 @@
         <v>230</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G116" s="2">
         <v>4</v>
@@ -6417,18 +6417,18 @@
         <v>503</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D117" s="3">
         <v>1312055</v>
@@ -6437,7 +6437,7 @@
         <v>688</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G117" s="2">
         <v>59</v>
@@ -6446,7 +6446,7 @@
         <v>246.73099999999999</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J117" s="3">
         <v>4647501</v>
@@ -6454,10 +6454,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C118" s="2">
         <v>36</v>
@@ -6481,15 +6481,15 @@
         <v>110</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C119" s="2">
         <v>546</v>
@@ -6518,16 +6518,16 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C120" s="2">
         <v>175</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E120" s="2">
         <v>226</v>
@@ -6550,10 +6550,10 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C121" s="2">
         <v>378</v>
@@ -6565,7 +6565,7 @@
         <v>254</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G121" s="2">
         <v>1</v>
@@ -6582,10 +6582,10 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="C122" s="3">
         <v>1381</v>
@@ -6597,7 +6597,7 @@
         <v>2070</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G122" s="3">
         <v>1258</v>
@@ -6609,15 +6609,15 @@
         <v>4709</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C123" s="2">
         <v>766</v>
@@ -6646,10 +6646,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C124" s="2">
         <v>435</v>
@@ -6673,15 +6673,15 @@
         <v>635</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C125" s="2">
         <v>416</v>
@@ -6705,15 +6705,15 @@
         <v>1016</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C126" s="2">
         <v>267</v>
@@ -6742,16 +6742,16 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C127" s="3">
         <v>1158</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E127" s="2">
         <v>129</v>
@@ -6774,10 +6774,10 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C128" s="2">
         <v>248</v>
@@ -6806,16 +6806,16 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C129" s="3">
         <v>1250</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E129" s="2">
         <v>173</v>
@@ -6827,10 +6827,10 @@
         <v>54</v>
       </c>
       <c r="H129" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I129" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="J129" s="3">
         <v>2291946</v>
@@ -6838,10 +6838,10 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C130" s="2">
         <v>454</v>
@@ -6865,21 +6865,21 @@
         <v>611</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C131" s="2">
         <v>854</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E131" s="2">
         <v>200</v>
@@ -6891,7 +6891,7 @@
         <v>216</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I131" s="2">
         <v>1270</v>
@@ -6902,10 +6902,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C132" s="2">
         <v>395</v>
@@ -6917,33 +6917,33 @@
         <v>192</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G132" s="2">
         <v>96</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I132" s="2">
         <v>683</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C133" s="2">
         <v>501</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E133" s="2">
         <v>196</v>
@@ -6955,27 +6955,27 @@
         <v>230</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I133" s="2">
         <v>927</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C134" s="2">
         <v>436</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E134" s="2">
         <v>95</v>
@@ -6998,13 +6998,13 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="D135" s="5">
         <v>1111303</v>
@@ -7030,22 +7030,22 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C136" s="2">
         <v>294</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E136" s="2">
         <v>204</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G136" s="2">
         <v>61</v>
@@ -7057,15 +7057,15 @@
         <v>559</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C137" s="2">
         <v>287</v>
@@ -7094,16 +7094,16 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C138" s="2">
         <v>295</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E138" s="2">
         <v>63</v>
@@ -7115,21 +7115,21 @@
         <v>29</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I138" s="2">
         <v>387</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C139" s="2">
         <v>257</v>
@@ -7147,7 +7147,7 @@
         <v>25</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I139" s="2">
         <v>333</v>
@@ -7158,10 +7158,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C140" s="2">
         <v>321</v>
@@ -7179,21 +7179,21 @@
         <v>127</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I140" s="2">
         <v>602</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C141" s="2">
         <v>482</v>
@@ -7211,21 +7211,21 @@
         <v>87</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I141" s="2">
         <v>627</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C142" s="2">
         <v>419</v>
@@ -7249,15 +7249,15 @@
         <v>670</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C143" s="2">
         <v>255</v>
@@ -7275,7 +7275,7 @@
         <v>14</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I143" s="2">
         <v>309</v>
@@ -7286,10 +7286,10 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C144" s="2">
         <v>375</v>
@@ -7301,7 +7301,7 @@
         <v>492</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G144" s="2">
         <v>2</v>
@@ -7318,10 +7318,10 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C145" s="2">
         <v>154</v>
@@ -7333,7 +7333,7 @@
         <v>25</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G145" s="2">
         <v>39</v>
@@ -7350,10 +7350,10 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C146" s="2">
         <v>743</v>
@@ -7365,7 +7365,7 @@
         <v>451</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G146" s="2">
         <v>148</v>
@@ -7385,7 +7385,7 @@
         <v>190</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C147" s="2">
         <v>543</v>
@@ -7409,15 +7409,15 @@
         <v>794</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C148" s="2">
         <v>297</v>
@@ -7435,7 +7435,7 @@
         <v>38</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I148" s="2">
         <v>365</v>
@@ -7446,10 +7446,10 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C149" s="2">
         <v>262</v>
@@ -7467,7 +7467,7 @@
         <v>33</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I149" s="2">
         <v>402</v>
@@ -7478,10 +7478,10 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C150" s="2">
         <v>392</v>
@@ -7493,7 +7493,7 @@
         <v>140</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G150" s="2">
         <v>88</v>
@@ -7510,10 +7510,10 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C151" s="2">
         <v>715</v>
@@ -7542,10 +7542,10 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C152" s="2">
         <v>375</v>
@@ -7563,7 +7563,7 @@
         <v>91</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I152" s="2">
         <v>562</v>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C153" s="2">
         <v>321</v>
@@ -7601,15 +7601,15 @@
         <v>531</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C154" s="2">
         <v>91</v>
@@ -7633,15 +7633,15 @@
         <v>190</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C155" s="2">
         <v>356</v>
@@ -7670,10 +7670,10 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C156" s="2">
         <v>313</v>
@@ -7697,15 +7697,15 @@
         <v>381</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C157" s="2">
         <v>966</v>
@@ -7717,7 +7717,7 @@
         <v>181</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G157" s="2">
         <v>140</v>
@@ -7734,10 +7734,10 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C158" s="2">
         <v>406</v>
@@ -7761,21 +7761,21 @@
         <v>490</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C159" s="2">
         <v>136</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E159" s="2">
         <v>83</v>
@@ -7798,10 +7798,10 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C160" s="2">
         <v>367</v>
@@ -7813,7 +7813,7 @@
         <v>75</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G160" s="2">
         <v>42</v>
@@ -7825,15 +7825,15 @@
         <v>484</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C161" s="2">
         <v>289</v>
@@ -7851,27 +7851,27 @@
         <v>94</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I161" s="2">
         <v>467</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C162" s="2">
         <v>396</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E162" s="2">
         <v>16</v>
@@ -7894,16 +7894,16 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C163" s="2">
         <v>342</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E163" s="2">
         <v>79</v>
@@ -7926,10 +7926,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="C164" s="2">
         <v>419</v>
@@ -7961,7 +7961,7 @@
         <v>113</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C165" s="2">
         <v>105</v>
@@ -7979,7 +7979,7 @@
         <v>28</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I165" s="2">
         <v>206</v>
@@ -7990,13 +7990,13 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="D166" s="3">
         <v>3919390</v>
@@ -8011,7 +8011,7 @@
         <v>233</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I166" s="2">
         <v>1.9370000000000001</v>
@@ -8022,10 +8022,10 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C167" s="2">
         <v>422</v>
@@ -8054,10 +8054,10 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C168" s="2">
         <v>167</v>
@@ -8086,10 +8086,10 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C169" s="2">
         <v>186</v>
@@ -8101,13 +8101,13 @@
         <v>168</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G169" s="2">
         <v>6</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I169" s="2">
         <v>360</v>
@@ -8118,10 +8118,10 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C170" s="2">
         <v>546</v>
@@ -8150,10 +8150,10 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C171" s="2">
         <v>404</v>
@@ -8165,33 +8165,33 @@
         <v>176</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G171" s="2">
         <v>39</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I171" s="2">
         <v>619</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C172" s="2">
         <v>332</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E172" s="2">
         <v>240</v>
@@ -8209,15 +8209,15 @@
         <v>607</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C173" s="2">
         <v>302</v>
@@ -8246,16 +8246,16 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C174" s="2">
         <v>574</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E174" s="2">
         <v>231</v>
@@ -8267,7 +8267,7 @@
         <v>13</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I174" s="2">
         <v>818</v>
@@ -8278,10 +8278,10 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C175" s="2">
         <v>237</v>
@@ -8310,10 +8310,10 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C176" s="2">
         <v>618</v>
@@ -8325,7 +8325,7 @@
         <v>159</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G176" s="2">
         <v>8</v>
@@ -8337,15 +8337,15 @@
         <v>785</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C177" s="2">
         <v>343</v>
@@ -8374,22 +8374,22 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="C178" s="2">
         <v>479</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E178" s="2">
         <v>358</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G178" s="2">
         <v>48</v>
@@ -8406,10 +8406,10 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C179" s="2">
         <v>110</v>
@@ -8433,21 +8433,21 @@
         <v>416</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C180" s="2">
         <v>364</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E180" s="2">
         <v>176</v>
@@ -8465,15 +8465,15 @@
         <v>548</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C181" s="2">
         <v>198</v>
@@ -8485,7 +8485,7 @@
         <v>204</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G181" s="2">
         <v>12</v>
@@ -8502,10 +8502,10 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C182" s="2">
         <v>205</v>
@@ -8517,7 +8517,7 @@
         <v>513</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G182" s="2">
         <v>71</v>
@@ -8529,15 +8529,15 @@
         <v>789</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C183" s="2">
         <v>360</v>
@@ -8549,7 +8549,7 @@
         <v>560</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G183" s="2">
         <v>50</v>
@@ -8566,10 +8566,10 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C184" s="2">
         <v>406</v>
@@ -8581,7 +8581,7 @@
         <v>612</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G184" s="2">
         <v>27</v>
@@ -8598,10 +8598,10 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C185" s="2">
         <v>498</v>
@@ -8630,16 +8630,16 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E186" s="3">
         <v>1248</v>
@@ -8657,15 +8657,15 @@
         <v>3265</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C187" s="2">
         <v>639</v>
@@ -8677,7 +8677,7 @@
         <v>166</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G187" s="2">
         <v>22</v>
@@ -8694,10 +8694,10 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C188" s="2">
         <v>647</v>
@@ -8721,18 +8721,18 @@
         <v>921</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="D189" s="3">
         <v>1543589</v>
@@ -8753,27 +8753,27 @@
         <v>1.177</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C190" s="2" t="s">
+      <c r="D190" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="E190" s="2">
         <v>412</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G190" s="2">
         <v>47</v>
@@ -8785,15 +8785,15 @@
         <v>1531</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C191" s="2">
         <v>827</v>
@@ -8805,7 +8805,7 @@
         <v>331</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G191" s="2">
         <v>14</v>
@@ -8817,21 +8817,21 @@
         <v>1172</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C192" s="2">
         <v>678</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E192" s="2">
         <v>199</v>
@@ -8849,15 +8849,15 @@
         <v>908</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C193" s="2">
         <v>856</v>
@@ -8869,7 +8869,7 @@
         <v>186</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G193" s="2">
         <v>3</v>
@@ -8878,7 +8878,7 @@
         <v>10175</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J193" s="3">
         <v>764754</v>
@@ -8886,10 +8886,10 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C194" s="2">
         <v>694</v>
@@ -8907,33 +8907,33 @@
         <v>59</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I194" s="2">
         <v>944</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="C195" s="2">
         <v>422</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E195" s="2">
         <v>364</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G195" s="2">
         <v>72</v>
@@ -8950,16 +8950,16 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C196" s="2">
         <v>334</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E196" s="2">
         <v>55</v>
@@ -8982,10 +8982,10 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C197" s="2">
         <v>624</v>
@@ -9014,10 +9014,10 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>505</v>
+        <v>763</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C198" s="2">
         <v>301</v>
@@ -9046,16 +9046,16 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C199" s="2">
         <v>255</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E199" s="2">
         <v>98</v>
@@ -9067,27 +9067,27 @@
         <v>53</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I199" s="2">
         <v>406</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C200" s="2">
         <v>408</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E200" s="2">
         <v>57</v>
@@ -9105,15 +9105,15 @@
         <v>503</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C201" s="2">
         <v>506</v>
@@ -9142,10 +9142,10 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C202" s="2">
         <v>429</v>
@@ -9157,7 +9157,7 @@
         <v>194</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G202" s="2">
         <v>43</v>
@@ -9169,18 +9169,18 @@
         <v>666</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D203" s="3">
         <v>1765891</v>
@@ -9189,7 +9189,7 @@
         <v>525</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G203" s="2">
         <v>66</v>
@@ -9198,18 +9198,18 @@
         <v>259467</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C204" s="2">
         <v>322</v>
@@ -9221,7 +9221,7 @@
         <v>120</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G204" s="2">
         <v>33</v>
@@ -9233,15 +9233,15 @@
         <v>475</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C205" s="2">
         <v>510</v>
@@ -9253,27 +9253,27 @@
         <v>132</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G205" s="2">
         <v>8</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I205" s="2">
         <v>650</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C206" s="2">
         <v>720</v>
@@ -9297,33 +9297,33 @@
         <v>905</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="E207" s="2">
         <v>1160</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G207" s="2">
         <v>143</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I207" s="3">
         <v>3621</v>
@@ -9334,10 +9334,10 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C208" s="2">
         <v>345</v>
@@ -9366,10 +9366,10 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C209" s="2">
         <v>158</v>
@@ -9398,16 +9398,16 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>538</v>
+        <v>762</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C210" s="2">
         <v>158</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E210" s="2">
         <v>121</v>
@@ -9419,7 +9419,7 @@
         <v>19</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I210" s="2">
         <v>298</v>
@@ -9430,10 +9430,10 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C211" s="2">
         <v>707</v>
@@ -9457,15 +9457,15 @@
         <v>1070</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C212" s="2">
         <v>268</v>
@@ -9494,16 +9494,16 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C213" s="2">
         <v>2.234</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E213" s="2">
         <v>218</v>
@@ -9526,16 +9526,16 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C214" s="2">
         <v>458</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E214" s="2">
         <v>148</v>
@@ -9547,7 +9547,7 @@
         <v>16</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I214" s="2">
         <v>622</v>
@@ -9558,16 +9558,16 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C215" s="2">
         <v>399</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E215" s="2">
         <v>128</v>
@@ -9579,7 +9579,7 @@
         <v>2</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I215" s="2">
         <v>529</v>
@@ -9590,16 +9590,16 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C216" s="2">
         <v>537</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E216" s="2">
         <v>92</v>
@@ -9622,10 +9622,10 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C217" s="2">
         <v>353</v>
@@ -9646,24 +9646,24 @@
         <v>176.489</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C218" s="2">
         <v>238</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E218" s="2">
         <v>194</v>
@@ -9675,13 +9675,13 @@
         <v>2</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I218" s="2">
         <v>434</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
@@ -9689,7 +9689,7 @@
         <v>62</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C219" s="2">
         <v>418</v>
@@ -9707,7 +9707,7 @@
         <v>39</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I219" s="2">
         <v>692</v>
@@ -9718,10 +9718,10 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C220" s="2">
         <v>976</v>
@@ -9739,7 +9739,7 @@
         <v>17</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I220" s="2">
         <v>1.5840000000000001</v>
@@ -9750,10 +9750,10 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C221" s="2">
         <v>950</v>
@@ -9765,13 +9765,13 @@
         <v>244</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G221" s="2">
         <v>42</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I221" s="3">
         <v>1236</v>
@@ -9782,10 +9782,10 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C222" s="2">
         <v>418</v>
@@ -9803,7 +9803,7 @@
         <v>43</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I222" s="2">
         <v>700</v>
@@ -9814,10 +9814,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C223" s="2">
         <v>656</v>
@@ -9829,7 +9829,7 @@
         <v>380</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G223" s="2">
         <v>99</v>
@@ -9841,21 +9841,21 @@
         <v>1.135</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C224" s="2">
         <v>680</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E224" s="2">
         <v>171</v>
@@ -9867,13 +9867,13 @@
         <v>21</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I224" s="2">
         <v>872</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
@@ -9881,7 +9881,7 @@
         <v>140</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C225" s="2">
         <v>405</v>
@@ -9905,27 +9905,27 @@
         <v>749</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C226" s="2">
         <v>205</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E226" s="2">
         <v>108</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G226" s="2">
         <v>12</v>
@@ -9937,15 +9937,15 @@
         <v>325</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C227" s="2">
         <v>259</v>
@@ -9957,7 +9957,7 @@
         <v>185</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G227" s="2">
         <v>78</v>
@@ -9974,10 +9974,10 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C228" s="2">
         <v>286</v>
@@ -10006,16 +10006,16 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C229" s="2">
         <v>923</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E229" s="2">
         <v>917</v>
@@ -10027,21 +10027,21 @@
         <v>391</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I229" s="2">
         <v>2.2309999999999999</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C230" s="2">
         <v>176</v>
@@ -10053,7 +10053,7 @@
         <v>85</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G230" s="2">
         <v>5</v>
@@ -10070,22 +10070,22 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C231" s="2">
         <v>284</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G231" s="2">
         <v>27</v>
@@ -10102,10 +10102,10 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C232" s="2">
         <v>14</v>
@@ -10134,10 +10134,10 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C233" s="2">
         <v>219</v>
@@ -10161,15 +10161,15 @@
         <v>402</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C234" s="2">
         <v>195</v>
@@ -10198,10 +10198,10 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C235" s="2">
         <v>191</v>
@@ -10230,16 +10230,16 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C236" s="2">
         <v>858</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E236" s="3">
         <v>1027</v>
@@ -10262,22 +10262,22 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C237" s="2">
         <v>272</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E237" s="2">
         <v>151</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G237" s="2">
         <v>7</v>
@@ -10289,15 +10289,15 @@
         <v>430</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C238" s="2">
         <v>953</v>
@@ -10309,39 +10309,39 @@
         <v>142</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G238" s="2">
         <v>211</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I238" s="3">
         <v>1306</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C239" s="3">
         <v>1570</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E239" s="2">
         <v>251</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G239" s="2">
         <v>175</v>
@@ -10358,10 +10358,10 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C240" s="2">
         <v>174</v>
@@ -10373,27 +10373,27 @@
         <v>29</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G240" s="2">
         <v>28</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I240" s="2">
         <v>231</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C241" s="2">
         <v>462</v>
@@ -10422,16 +10422,16 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C242" s="2">
         <v>241</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E242" s="2">
         <v>129</v>
@@ -10454,22 +10454,22 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C243" s="2">
         <v>110</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E243" s="2">
         <v>132</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G243" s="2">
         <v>30</v>
@@ -10481,21 +10481,21 @@
         <v>272</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C244" s="2">
         <v>631</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E244" s="2">
         <v>80</v>
@@ -10518,22 +10518,22 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C245" s="2">
         <v>764</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E245" s="2">
         <v>443</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G245" s="2">
         <v>168</v>
@@ -10542,7 +10542,7 @@
         <v>1069606</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="J245" s="3">
         <v>3615377</v>
@@ -10550,16 +10550,16 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C246" s="2">
         <v>95</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E246" s="2">
         <v>63</v>
@@ -10577,15 +10577,15 @@
         <v>181</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C247" s="2">
         <v>216</v>
@@ -10597,7 +10597,7 @@
         <v>116</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G247" s="2">
         <v>15</v>
@@ -10609,21 +10609,21 @@
         <v>347</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C248" s="2">
         <v>255</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E248" s="2">
         <v>174</v>
@@ -10641,21 +10641,21 @@
         <v>447</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C249" s="2">
         <v>406</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E249" s="2">
         <v>144</v>
@@ -10673,21 +10673,21 @@
         <v>555</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C250" s="2">
         <v>845</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E250" s="2">
         <v>528</v>
@@ -10699,10 +10699,10 @@
         <v>106</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J250" s="3">
         <v>3629519</v>
@@ -10710,10 +10710,10 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C251" s="2">
         <v>79</v>
@@ -10725,7 +10725,7 @@
         <v>162</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G251" s="2">
         <v>10</v>
@@ -10742,10 +10742,10 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C252" s="2">
         <v>551</v>
@@ -10757,7 +10757,7 @@
         <v>626</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G252" s="2">
         <v>43</v>
@@ -10774,10 +10774,10 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C253" s="2">
         <v>278</v>
@@ -10801,15 +10801,15 @@
         <v>419</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C254" s="2">
         <v>526</v>
@@ -10833,15 +10833,15 @@
         <v>683</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C255" s="2">
         <v>103</v>
@@ -10853,7 +10853,7 @@
         <v>82</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G255" s="2">
         <v>22</v>
@@ -10870,10 +10870,10 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C256" s="2">
         <v>149</v>
@@ -10902,16 +10902,16 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C257" s="2">
         <v>238</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E257" s="2">
         <v>72</v>
@@ -10929,27 +10929,27 @@
         <v>347</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C258" s="2">
         <v>238</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E258" s="2">
         <v>130</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G258" s="2">
         <v>83</v>
@@ -10961,27 +10961,27 @@
         <v>451</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C259" s="2">
         <v>865</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E259" s="2">
         <v>683</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G259" s="2">
         <v>178</v>
@@ -10998,10 +10998,10 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C260" s="2">
         <v>198</v>
@@ -11019,7 +11019,7 @@
         <v>2</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="I260" s="2">
         <v>232</v>
@@ -11030,16 +11030,16 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C261" s="2">
         <v>578</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E261" s="2">
         <v>459</v>
@@ -11062,22 +11062,22 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C262" s="2">
         <v>240</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E262" s="2">
         <v>84</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G262" s="2">
         <v>19</v>
@@ -11094,10 +11094,10 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C263" s="2">
         <v>541</v>
@@ -11109,33 +11109,33 @@
         <v>369</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G263" s="2">
         <v>96</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="I263" s="3">
         <v>1006</v>
       </c>
       <c r="J263" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C264" s="2">
         <v>294</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E264" s="2">
         <v>188</v>
@@ -11147,7 +11147,7 @@
         <v>170</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I264" s="2">
         <v>652</v>
@@ -11158,10 +11158,10 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C265" s="2">
         <v>1</v>
@@ -11190,22 +11190,22 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C266" s="2">
         <v>380</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E266" s="2">
         <v>174</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G266" s="2">
         <v>28</v>
@@ -11217,27 +11217,27 @@
         <v>582</v>
       </c>
       <c r="J266" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C267" s="2">
         <v>105</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E267" s="2">
         <v>87</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G267" s="2">
         <v>9</v>
@@ -11254,10 +11254,10 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C268" s="2">
         <v>376</v>
@@ -11286,16 +11286,16 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C269" s="2">
         <v>673</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E269" s="2">
         <v>329</v>
@@ -11307,21 +11307,21 @@
         <v>363</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C270" s="2">
         <v>373</v>
@@ -11350,10 +11350,10 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C271" s="2">
         <v>582</v>
@@ -11371,7 +11371,7 @@
         <v>93</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="I271" s="2">
         <v>946</v>
@@ -11382,16 +11382,16 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C272" s="2">
         <v>393</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E272" s="2">
         <v>279</v>
@@ -11403,7 +11403,7 @@
         <v>48</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I272" s="2">
         <v>720</v>
@@ -11414,10 +11414,10 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C273" s="2">
         <v>512</v>
@@ -11435,7 +11435,7 @@
         <v>387</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I273" s="3">
         <v>1240</v>
@@ -11446,16 +11446,16 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C274" s="2">
         <v>182</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E274" s="2">
         <v>168</v>
@@ -11467,21 +11467,21 @@
         <v>118</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="I274" s="2">
         <v>468</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C275" s="2">
         <v>592</v>
@@ -11499,21 +11499,21 @@
         <v>58</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="I275" s="2">
         <v>854</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C276" s="2">
         <v>157</v>
@@ -11531,21 +11531,21 @@
         <v>19</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="I276" s="2">
         <v>302</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C277" s="2">
         <v>70</v>
@@ -11557,7 +11557,7 @@
         <v>721</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G277" s="2">
         <v>0</v>
@@ -11569,15 +11569,15 @@
         <v>791</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C278" s="2">
         <v>101</v>
@@ -11606,10 +11606,10 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C279" s="2">
         <v>389</v>
@@ -11638,16 +11638,16 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C280" s="2">
         <v>421</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E280" s="2">
         <v>594</v>
@@ -11670,10 +11670,10 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C281" s="2">
         <v>387</v>
@@ -11697,27 +11697,27 @@
         <v>683</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C282" s="2">
         <v>875</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E282" s="2">
         <v>956</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G282" s="2">
         <v>69</v>
@@ -11734,22 +11734,22 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C283" s="2">
         <v>630</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E283" s="3">
         <v>1289</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G283" s="2">
         <v>92</v>
@@ -11761,15 +11761,15 @@
         <v>2011</v>
       </c>
       <c r="J283" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C284" s="2">
         <v>269</v>
@@ -11781,7 +11781,7 @@
         <v>229</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G284" s="2">
         <v>1</v>
@@ -11798,10 +11798,10 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C285" s="2">
         <v>519</v>
@@ -11819,27 +11819,27 @@
         <v>22</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C286" s="2">
         <v>197</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E286" s="3">
         <v>1202</v>
@@ -11857,27 +11857,27 @@
         <v>1.4139999999999999</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C287" s="2">
         <v>890</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E287" s="2">
         <v>349</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G287" s="2">
         <v>14</v>
@@ -11894,10 +11894,10 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C288" s="2">
         <v>107</v>
@@ -11926,10 +11926,10 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C289" s="2">
         <v>50</v>
@@ -11958,10 +11958,10 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C290" s="2">
         <v>177</v>
@@ -11990,16 +11990,16 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C291" s="2">
         <v>259</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E291" s="2">
         <v>496</v>
@@ -12011,21 +12011,21 @@
         <v>47</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I291" s="2">
         <v>802</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C292" s="2">
         <v>34</v>
@@ -12054,10 +12054,10 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C293" s="2">
         <v>88</v>
